--- a/biology/Botanique/Onychium/Onychium.xlsx
+++ b/biology/Botanique/Onychium/Onychium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Onychium est un genre de fougères de la famille des Pteridaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est représenté en Afrique de l'Est, sur la Péninsule arabique, en Iran, en Asie du Sud et du Sud-Est, en Océanie, au nord-est jusqu'au Japon, à l'ouest jusqu'au Soudan, au sud jusqu'en Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est représenté en Afrique de l'Est, sur la Péninsule arabique, en Iran, en Asie du Sud et du Sud-Est, en Océanie, au nord-est jusqu'au Japon, à l'ouest jusqu'au Soudan, au sud jusqu'en Australie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (18 septembre 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (18 septembre 2021) :
 Onychium cryptogrammoides Christ
 Onychium divaricatum (Poir.) Alston
 Onychium japonicum (Thunb.) Kunze
@@ -559,7 +575,7 @@
 Onychium tenuifrons Ching
 Onychium vermae Fraser-Jenk. &amp; Khullar
 Onychium ×matsumotoi Fraser-Jenk. &amp; Kandel
-Selon Plants of the World online (POWO)                (18 septembre 2021)[1] :
+Selon Plants of the World online (POWO)                (18 septembre 2021) :
 Onychium cryptogrammoides Christ
 Onychium divaricatum (Poir.) Alston
 Onychium fragile S.Verma &amp; Khullar
@@ -600,10 +616,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique de ce taxon est Onychium, choisi en 1820 par le botaniste allemand Georg Friedrich Kaulfuss[3], pour l'espèce type Onychium capense.
-Le genre Leptostegia D.Don est synonyme de Onychium[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique de ce taxon est Onychium, choisi en 1820 par le botaniste allemand Georg Friedrich Kaulfuss, pour l'espèce type Onychium capense.
+Le genre Leptostegia D.Don est synonyme de Onychium,.
 </t>
         </is>
       </c>
